--- a/src/output/output.xlsx
+++ b/src/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>dodid</t>
   </si>
@@ -67,12 +67,6 @@
     <t>johncena</t>
   </si>
   <si>
-    <t>nicholasfletcher</t>
-  </si>
-  <si>
-    <t>jcena</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
   </si>
   <si>
     <t>John Cena</t>
-  </si>
-  <si>
-    <t>Nicholas Fletcher</t>
-  </si>
-  <si>
-    <t>J Cena</t>
   </si>
 </sst>
 </file>
@@ -482,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <f>CHOOSE(1,"","IND_OVERDUE")</f>
@@ -588,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
@@ -607,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"","IND_ASSIGNED")</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -629,13 +617,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>-1</v>
+        <v>4453245321</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
@@ -650,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"","IND_OVERDUE")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>CHOOSE(1,"","IND_ASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-29","IND_ONTIME")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-29","IND_OVERDUE")</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-28","IND_OVERDUE")</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -670,34 +658,34 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2000-01-01","IND_ONTIME")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>-1</v>
+        <v>5555555555</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>CHOOSE(1,"","IND_OVERDUE")</f>
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
         <v>0</v>
       </c>
       <c r="I5">
@@ -713,444 +701,21 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>CHOOSE(1,"2024-08-29","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>CHOOSE(1,"2024-08-29","IND_OVERDUE")</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>-1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>CHOOSE(1,"2024-08-28","IND_OVERDUE")</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>-1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>-1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>-1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>4453245321</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>CHOOSE(1,"2000-01-01","IND_ONTIME")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>5555555555</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
         <f>CHOOSE(1,"2000-01-01","IND_OVERDUE")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E14">
+  <conditionalFormatting sqref="A2:E5">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(COLUMN(A2) &lt; 5, ROW(A2) &lt; 15)</formula>
+      <formula>AND(COLUMN(A2) &lt; 5, ROW(A2) &lt; 6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:M14">
+  <conditionalFormatting sqref="E2:M5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISNUMBER(SEARCH("IND_OVERDUE", _xlfn.FORMULATEXT(E2)))</formula>
     </cfRule>

--- a/src/output/output.xlsx
+++ b/src/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>dodid</t>
   </si>
@@ -28,6 +28,33 @@
     <t>fullName</t>
   </si>
   <si>
+    <t>DHA Accommodations (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>Leadership Training (4 hrs)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>MHS Customer Service (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>Counterintelligence (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>HIPAA Training (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>Supervisor Safety Training (2 hrs)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>Employee Safety (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>Violence Response (1 hr)-nameMatchTest</t>
+  </si>
+  <si>
+    <t>RandomCourse-nameMatchTest</t>
+  </si>
+  <si>
     <t>DHA Accommodations (1 hr)-JKO</t>
   </si>
   <si>
@@ -58,22 +85,76 @@
     <t>johndoe</t>
   </si>
   <si>
+    <t>doe,john</t>
+  </si>
+  <si>
+    <t>joedohn</t>
+  </si>
+  <si>
+    <t>donjoeh</t>
+  </si>
+  <si>
+    <t>doeandrew</t>
+  </si>
+  <si>
     <t>andrewhartmann</t>
   </si>
   <si>
-    <t>nickfletcher</t>
+    <t>hartmannandrew</t>
+  </si>
+  <si>
+    <t>arthanmman</t>
+  </si>
+  <si>
+    <t>nicholasfletcher</t>
+  </si>
+  <si>
+    <t>fletchernicholas</t>
+  </si>
+  <si>
+    <t>fletchersmith</t>
+  </si>
+  <si>
+    <t>nicholasdoe</t>
   </si>
   <si>
     <t>johncena</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Andrew Hartmann</t>
-  </si>
-  <si>
-    <t>Nick Fletcher</t>
+    <t>JohnDOE</t>
+  </si>
+  <si>
+    <t>Doe,John</t>
+  </si>
+  <si>
+    <t>JoeDohn</t>
+  </si>
+  <si>
+    <t>DonJoeh</t>
+  </si>
+  <si>
+    <t>DoeAndrew</t>
+  </si>
+  <si>
+    <t>AndrewHartmann</t>
+  </si>
+  <si>
+    <t>HartmannAndrew</t>
+  </si>
+  <si>
+    <t>ArtHanmman</t>
+  </si>
+  <si>
+    <t>NicholasFletcher</t>
+  </si>
+  <si>
+    <t>FletcherNicholas</t>
+  </si>
+  <si>
+    <t>FletcherSmith</t>
+  </si>
+  <si>
+    <t>NicholasDoe</t>
   </si>
   <si>
     <t>John Cena</t>
@@ -470,17 +551,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="14" width="30.7109375" customWidth="1"/>
+    <col min="5" max="23" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,202 +601,1120 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1234567891</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E2">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
         <f>CHOOSE(1,"","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="O2">
         <f>CHOOSE(1,"2024-08-31","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <f>CHOOSE(1,"2024-08-31","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="Q2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
         <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:22">
       <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>CHOOSE(1,"2024-09-01","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>CHOOSE(1,"2024-09-01","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
         <v>3322111234</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>CHOOSE(1,"2024-08-01","IND_ONTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <f>CHOOSE(1,"","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="R7">
         <f>CHOOSE(1,"","IND_ASSIGNED")</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="S7">
         <f>CHOOSE(1,"2024-08-30","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="T7">
         <f>CHOOSE(1,"2024-08-29","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="U7">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
         <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>CHOOSE(1,"2024-08-01","IND_ONTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>CHOOSE(1,"2024-08-01","IND_ONTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>CHOOSE(1,"2024-08-01","IND_ONTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
         <v>4453245321</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <f>CHOOSE(1,"","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="R10">
         <f>CHOOSE(1,"2024-08-29","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="S10">
         <f>CHOOSE(1,"2024-08-29","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="T10">
         <f>CHOOSE(1,"2024-08-28","IND_OVERDUE")</f>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="U10">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f>CHOOSE(1,"2000-01-01","IND_ONTIME")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>CHOOSE(1,"2024-09-01","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>CHOOSE(1,"2000-01-02","IND_OVERDUE")</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>CHOOSE(1,"1999-01-01","IND_ONTIME")</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
         <v>5555555555</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
         <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="O14">
         <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="P14">
         <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="H5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="Q14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>CHOOSE(1,"","IND_NOTASSIGNED")</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f>CHOOSE(1,"2024-08-28","IND_ONTIME")</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="V14">
         <f>CHOOSE(1,"2000-01-01","IND_OVERDUE")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E5">
+  <conditionalFormatting sqref="A2:E14">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(COLUMN(A2) &lt; 5, ROW(A2) &lt; 6)</formula>
+      <formula>AND(COLUMN(A2) &lt; 5, ROW(A2) &lt; 15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:M5">
+  <conditionalFormatting sqref="E2:V14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISNUMBER(SEARCH("IND_OVERDUE", _xlfn.FORMULATEXT(E2)))</formula>
     </cfRule>
